--- a/rm/test/resources/test_total_data_error_empty_rows.xlsx
+++ b/rm/test/resources/test_total_data_error_empty_rows.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t xml:space="preserve">Database nr.</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t xml:space="preserve">ROW ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROW IGNORED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team zonder users</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -200,6 +209,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,7 +266,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +291,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,6 +304,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -296,7 +375,7 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,7 +385,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="6" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="7" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.5"/>
@@ -592,7 +672,79 @@
         <v>40969.4583333333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>44256.4583333333</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="5" t="n">
+        <v>2656</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4" t="n">
+        <v>41334.4583333333</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>40969.4583333333</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/rm/test/resources/test_total_data_error_empty_rows.xlsx
+++ b/rm/test/resources/test_total_data_error_empty_rows.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t xml:space="preserve">Database nr.</t>
   </si>
@@ -136,16 +136,25 @@
     <t xml:space="preserve">NPO/Technology/IAAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Bart Adriaanse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bart.adriaanse@npo.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">035 677 8899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRO-NCRV(AKN)-mw/0211/016 Colo remote extra 1 Gb koppeling</t>
+    <t xml:space="preserve">Eelco Aartsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eelco@aesset.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">075-6261455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pietje Puk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.puk@npo.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06-123123123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strooizout 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Ja</t>
@@ -181,7 +190,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -211,10 +220,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="1" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,6 +300,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,7 +312,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -374,8 +395,8 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T5" activeCellId="0" sqref="T5:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,7 +514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -515,13 +536,13 @@
       <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="4" t="n">
+      <c r="J2" s="5" t="n">
         <v>44256.4583333333</v>
       </c>
       <c r="K2" s="3"/>
@@ -531,38 +552,38 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="5" t="n">
-        <v>2656</v>
+      <c r="R2" s="6" t="n">
+        <v>3250</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>41334.4583333333</v>
       </c>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="5" t="n">
         <v>40969.4583333333</v>
       </c>
     </row>
@@ -576,7 +597,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -584,7 +605,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="5"/>
+      <c r="R3" s="6"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -594,26 +615,26 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="4"/>
+      <c r="AB3" s="5"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="4"/>
+      <c r="AG3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>37</v>
@@ -621,13 +642,13 @@
       <c r="G4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <v>44256.4583333333</v>
       </c>
       <c r="K4" s="3"/>
@@ -637,47 +658,47 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="5" t="n">
-        <v>2656</v>
+      <c r="R4" s="6" t="n">
+        <v>3250</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>41334.4583333333</v>
       </c>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="5" t="n">
         <v>40969.4583333333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>34</v>
@@ -686,21 +707,21 @@
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <v>44256.4583333333</v>
       </c>
       <c r="K5" s="3"/>
@@ -710,38 +731,38 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="5" t="n">
-        <v>2656</v>
+      <c r="R5" s="6" t="n">
+        <v>3250</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>41334.4583333333</v>
       </c>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG5" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="5" t="n">
         <v>40969.4583333333</v>
       </c>
     </row>
@@ -923,6 +944,14 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="eelco@aesset.nl"/>
+    <hyperlink ref="U2" r:id="rId2" display="p.puk@npo.nl"/>
+    <hyperlink ref="H4" r:id="rId3" display="eelco@aesset.nl"/>
+    <hyperlink ref="U4" r:id="rId4" display="p.puk@npo.nl"/>
+    <hyperlink ref="H5" r:id="rId5" display="eelco@aesset.nl"/>
+    <hyperlink ref="U5" r:id="rId6" display="p.puk@npo.nl"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
